--- a/Documentation/hoja de costes.xlsx
+++ b/Documentation/hoja de costes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ultim\Desktop\Semestre X\VR2 - Realidad Virtual 2\Parcial 3\marsCats\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5082AA7-792E-4DE4-87A0-022CA1AEB842}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A3C731-0F70-4CAC-AEA0-408DFF76A721}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,8 +472,8 @@
   </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -655,15 +655,15 @@
         <v>100</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D15" si="3">C13*B13</f>
+        <f t="shared" ref="D13:D14" si="3">C13*B13</f>
         <v>5000</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E15" si="4">D13*$B$2</f>
+        <f t="shared" ref="E13:E14" si="4">D13*$B$2</f>
         <v>800</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F15" si="5">D13+E13</f>
+        <f t="shared" ref="F13:F14" si="5">D13+E13</f>
         <v>5800</v>
       </c>
       <c r="H13" t="s">
@@ -838,7 +838,7 @@
         <v>26</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s">
         <v>20</v>
@@ -858,7 +858,7 @@
       </c>
       <c r="I19">
         <f>I17*I18+F18</f>
-        <v>35260</v>
+        <v>107260</v>
       </c>
       <c r="K19" t="s">
         <v>12</v>
@@ -998,7 +998,7 @@
       </c>
       <c r="F27">
         <f>F9+I19+F25</f>
-        <v>59040</v>
+        <v>131040</v>
       </c>
     </row>
   </sheetData>
